--- a/SchedulingData/dynamic10/pso/scheduling1_10.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_10.xlsx
@@ -466,36 +466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>70.84</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>25.576</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.24</v>
+        <v>91.2</v>
       </c>
       <c r="E3" t="n">
-        <v>26.776</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="D4" t="n">
-        <v>49.5</v>
+        <v>148.7</v>
       </c>
       <c r="E4" t="n">
-        <v>27.24</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39.24</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.24</v>
+        <v>63.1</v>
       </c>
       <c r="E5" t="n">
-        <v>22.876</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>125.5</v>
+        <v>107.06</v>
       </c>
       <c r="E6" t="n">
-        <v>24.72</v>
+        <v>23.084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70.84</v>
+        <v>63.1</v>
       </c>
       <c r="D7" t="n">
-        <v>143.14</v>
+        <v>112.36</v>
       </c>
       <c r="E7" t="n">
-        <v>20.956</v>
+        <v>23.044</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>107.06</v>
       </c>
       <c r="D8" t="n">
-        <v>68.44</v>
+        <v>147.48</v>
       </c>
       <c r="E8" t="n">
-        <v>27.296</v>
+        <v>20.172</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>80.59999999999999</v>
+        <v>53.8</v>
       </c>
       <c r="E9" t="n">
-        <v>26.08</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>70.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E10" t="n">
-        <v>25.14</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>70.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D11" t="n">
-        <v>131.82</v>
+        <v>149.82</v>
       </c>
       <c r="E11" t="n">
-        <v>21.108</v>
+        <v>23.768</v>
       </c>
     </row>
     <row r="12">
@@ -656,112 +656,112 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>80.59999999999999</v>
+        <v>53.8</v>
       </c>
       <c r="D12" t="n">
-        <v>144.3</v>
+        <v>133.8</v>
       </c>
       <c r="E12" t="n">
-        <v>22.84</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>144.3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>220.16</v>
+        <v>84.66</v>
       </c>
       <c r="E13" t="n">
-        <v>19.824</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>220.16</v>
+        <v>148.7</v>
       </c>
       <c r="D14" t="n">
-        <v>285.36</v>
+        <v>204.24</v>
       </c>
       <c r="E14" t="n">
-        <v>17.404</v>
+        <v>16.476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>104.24</v>
+        <v>204.24</v>
       </c>
       <c r="D15" t="n">
-        <v>156.94</v>
+        <v>260.4</v>
       </c>
       <c r="E15" t="n">
-        <v>18.736</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>68.44</v>
+        <v>147.48</v>
       </c>
       <c r="D16" t="n">
-        <v>142.5</v>
+        <v>191.44</v>
       </c>
       <c r="E16" t="n">
-        <v>23.5</v>
+        <v>17.416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>143.14</v>
+        <v>133.8</v>
       </c>
       <c r="D17" t="n">
-        <v>194.7</v>
+        <v>172.84</v>
       </c>
       <c r="E17" t="n">
-        <v>17.94</v>
+        <v>18.136</v>
       </c>
     </row>
     <row r="18">
@@ -774,51 +774,51 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>156.94</v>
+        <v>112.36</v>
       </c>
       <c r="D18" t="n">
-        <v>199.14</v>
+        <v>154.66</v>
       </c>
       <c r="E18" t="n">
-        <v>16.136</v>
+        <v>20.444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>194.7</v>
+        <v>154.66</v>
       </c>
       <c r="D19" t="n">
-        <v>232.3</v>
+        <v>200.16</v>
       </c>
       <c r="E19" t="n">
-        <v>14.82</v>
+        <v>18.024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>232.3</v>
+        <v>84.66</v>
       </c>
       <c r="D20" t="n">
-        <v>293.26</v>
+        <v>144.56</v>
       </c>
       <c r="E20" t="n">
-        <v>12.324</v>
+        <v>21.344</v>
       </c>
     </row>
     <row r="21">
@@ -827,93 +827,93 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>131.82</v>
+        <v>149.82</v>
       </c>
       <c r="D21" t="n">
-        <v>189.42</v>
+        <v>196.18</v>
       </c>
       <c r="E21" t="n">
-        <v>16.488</v>
+        <v>20.752</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>189.42</v>
+        <v>144.56</v>
       </c>
       <c r="D22" t="n">
-        <v>225.74</v>
+        <v>199.64</v>
       </c>
       <c r="E22" t="n">
-        <v>13.496</v>
+        <v>17.956</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>125.5</v>
+        <v>191.44</v>
       </c>
       <c r="D23" t="n">
-        <v>218</v>
+        <v>230.34</v>
       </c>
       <c r="E23" t="n">
-        <v>20.04</v>
+        <v>14.656</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>218</v>
+        <v>230.34</v>
       </c>
       <c r="D24" t="n">
-        <v>267.66</v>
+        <v>273.88</v>
       </c>
       <c r="E24" t="n">
-        <v>17.184</v>
+        <v>11.432</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>142.5</v>
+        <v>273.88</v>
       </c>
       <c r="D25" t="n">
-        <v>197.48</v>
+        <v>328.54</v>
       </c>
       <c r="E25" t="n">
-        <v>20.112</v>
+        <v>8.576000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>197.48</v>
+        <v>199.64</v>
       </c>
       <c r="D26" t="n">
-        <v>265.92</v>
+        <v>265.54</v>
       </c>
       <c r="E26" t="n">
-        <v>16.848</v>
+        <v>15.436</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>267.66</v>
+        <v>200.16</v>
       </c>
       <c r="D27" t="n">
-        <v>318.08</v>
+        <v>276.78</v>
       </c>
       <c r="E27" t="n">
-        <v>14.272</v>
+        <v>13.992</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>225.74</v>
+        <v>196.18</v>
       </c>
       <c r="D28" t="n">
-        <v>286.84</v>
+        <v>263.78</v>
       </c>
       <c r="E28" t="n">
-        <v>9.016</v>
+        <v>16.132</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>285.36</v>
+        <v>172.84</v>
       </c>
       <c r="D29" t="n">
-        <v>326.82</v>
+        <v>220.34</v>
       </c>
       <c r="E29" t="n">
-        <v>14.388</v>
+        <v>15.016</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>265.92</v>
+        <v>276.78</v>
       </c>
       <c r="D30" t="n">
-        <v>324.48</v>
+        <v>330.12</v>
       </c>
       <c r="E30" t="n">
-        <v>14.092</v>
+        <v>11.288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>199.14</v>
+        <v>260.4</v>
       </c>
       <c r="D31" t="n">
-        <v>243.6</v>
+        <v>316.46</v>
       </c>
       <c r="E31" t="n">
-        <v>13.32</v>
+        <v>10.964</v>
       </c>
     </row>
   </sheetData>
